--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -540,40 +540,40 @@
         <v>3.896708</v>
       </c>
       <c r="I2">
-        <v>0.7196693520699016</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="J2">
-        <v>0.7196693520699017</v>
+        <v>0.7964389134426563</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.027884333333333</v>
+        <v>0.774269</v>
       </c>
       <c r="N2">
-        <v>6.083653</v>
+        <v>2.322807</v>
       </c>
       <c r="O2">
-        <v>0.07019303724735294</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="P2">
-        <v>0.07019303724735296</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="Q2">
-        <v>2.634024368258222</v>
+        <v>1.005700068817333</v>
       </c>
       <c r="R2">
-        <v>23.706219314324</v>
+        <v>9.051300619356001</v>
       </c>
       <c r="S2">
-        <v>0.05051577763562096</v>
+        <v>0.02187662545730622</v>
       </c>
       <c r="T2">
-        <v>0.05051577763562098</v>
+        <v>0.02187662545730623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.896708</v>
       </c>
       <c r="I3">
-        <v>0.7196693520699016</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="J3">
-        <v>0.7196693520699017</v>
+        <v>0.7964389134426563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.63013966666667</v>
+        <v>25.63013966666666</v>
       </c>
       <c r="N3">
-        <v>76.89041900000001</v>
+        <v>76.89041899999999</v>
       </c>
       <c r="O3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="P3">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="Q3">
-        <v>33.29105676007245</v>
+        <v>33.29105676007244</v>
       </c>
       <c r="R3">
-        <v>299.6195108406521</v>
+        <v>299.619510840652</v>
       </c>
       <c r="S3">
-        <v>0.6384616789474558</v>
+        <v>0.7241681714056923</v>
       </c>
       <c r="T3">
-        <v>0.6384616789474559</v>
+        <v>0.7241681714056925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>3.896708</v>
       </c>
       <c r="I4">
-        <v>0.7196693520699016</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="J4">
-        <v>0.7196693520699017</v>
+        <v>0.7964389134426563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.232082666666667</v>
+        <v>1.783575</v>
       </c>
       <c r="N4">
-        <v>3.696248</v>
+        <v>5.350725000000001</v>
       </c>
       <c r="O4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="P4">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="Q4">
-        <v>1.600355461287111</v>
+        <v>2.3166903237</v>
       </c>
       <c r="R4">
-        <v>14.403199151584</v>
+        <v>20.85021291330001</v>
       </c>
       <c r="S4">
-        <v>0.0306918954868249</v>
+        <v>0.05039411657965765</v>
       </c>
       <c r="T4">
-        <v>0.0306918954868249</v>
+        <v>0.05039411657965766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5059576666666666</v>
+        <v>0.3319853333333333</v>
       </c>
       <c r="H5">
-        <v>1.517873</v>
+        <v>0.995956</v>
       </c>
       <c r="I5">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="J5">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.027884333333333</v>
+        <v>0.774269</v>
       </c>
       <c r="N5">
-        <v>6.083653</v>
+        <v>2.322807</v>
       </c>
       <c r="O5">
-        <v>0.07019303724735294</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="P5">
-        <v>0.07019303724735296</v>
+        <v>0.02746805195987118</v>
       </c>
       <c r="Q5">
-        <v>1.026023625563222</v>
+        <v>0.2570459520546666</v>
       </c>
       <c r="R5">
-        <v>9.234212630068999</v>
+        <v>2.313413568492</v>
       </c>
       <c r="S5">
-        <v>0.01967725961173198</v>
+        <v>0.005591426502564953</v>
       </c>
       <c r="T5">
-        <v>0.01967725961173198</v>
+        <v>0.005591426502564954</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5059576666666666</v>
+        <v>0.3319853333333333</v>
       </c>
       <c r="H6">
-        <v>1.517873</v>
+        <v>0.995956</v>
       </c>
       <c r="I6">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="J6">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.63013966666667</v>
+        <v>25.63013966666666</v>
       </c>
       <c r="N6">
-        <v>76.89041900000001</v>
+        <v>76.89041899999999</v>
       </c>
       <c r="O6">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="P6">
-        <v>0.887159745112283</v>
+        <v>0.9092576457313354</v>
       </c>
       <c r="Q6">
-        <v>12.96776566208744</v>
+        <v>8.508830460618221</v>
       </c>
       <c r="R6">
-        <v>116.709890958787</v>
+        <v>76.57947414556399</v>
       </c>
       <c r="S6">
-        <v>0.2486980661648272</v>
+        <v>0.185089474325643</v>
       </c>
       <c r="T6">
-        <v>0.2486980661648272</v>
+        <v>0.185089474325643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5059576666666666</v>
+        <v>0.3319853333333333</v>
       </c>
       <c r="H7">
-        <v>1.517873</v>
+        <v>0.995956</v>
       </c>
       <c r="I7">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="J7">
-        <v>0.2803306479300983</v>
+        <v>0.2035610865573438</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.232082666666667</v>
+        <v>1.783575</v>
       </c>
       <c r="N7">
-        <v>3.696248</v>
+        <v>5.350725000000001</v>
       </c>
       <c r="O7">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="P7">
-        <v>0.04264721764036408</v>
+        <v>0.06327430230879351</v>
       </c>
       <c r="Q7">
-        <v>0.6233816711671111</v>
+        <v>0.5921207409</v>
       </c>
       <c r="R7">
-        <v>5.610435040503999</v>
+        <v>5.3290866681</v>
       </c>
       <c r="S7">
-        <v>0.01195532215353918</v>
+        <v>0.01288018572913585</v>
       </c>
       <c r="T7">
-        <v>0.01195532215353918</v>
+        <v>0.01288018572913585</v>
       </c>
     </row>
   </sheetData>
